--- a/template/ControlValue.xlsx
+++ b/template/ControlValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\HMC_Control_Chart\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FA2C64-2F8D-42B7-B72D-1F2144B41729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84BBACF-883D-472A-9F42-8E84EBC0C673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="960" windowWidth="16824" windowHeight="8964" activeTab="3" xr2:uid="{5299F01B-EB23-4A7A-B111-892698149075}"/>
+    <workbookView xWindow="696" yWindow="1308" windowWidth="16824" windowHeight="8964" activeTab="3" xr2:uid="{5299F01B-EB23-4A7A-B111-892698149075}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Value" sheetId="1" r:id="rId1"/>

--- a/template/ControlValue.xlsx
+++ b/template/ControlValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BARA\Documents\UiPath\HMC_Control_Chart\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84BBACF-883D-472A-9F42-8E84EBC0C673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCC7551-CB81-4550-B258-1006FA5071BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1308" windowWidth="16824" windowHeight="8964" activeTab="3" xr2:uid="{5299F01B-EB23-4A7A-B111-892698149075}"/>
+    <workbookView xWindow="-20490" yWindow="3180" windowWidth="11970" windowHeight="6330" activeTab="3" xr2:uid="{5299F01B-EB23-4A7A-B111-892698149075}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Value" sheetId="1" r:id="rId1"/>
@@ -2647,6 +2647,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011E55E6C1842AE4CB6572D7D9CD2547D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f04d73a1042f2f701a709b92ee12eb97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a35aa76-326d-438a-87d5-a222a3176c7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2085beb2fb7efd96d63cf4033b73ca82" ns2:_="">
     <xsd:import namespace="8a35aa76-326d-438a-87d5-a222a3176c7d"/>
@@ -2790,22 +2805,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0CCC47-C539-4122-BD4B-D70A5C455F8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641BBC22-9F0F-4067-80AD-237FD482BF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07297BFE-E1E8-4BA1-BE2D-236C4FFA0FFE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2821,21 +2838,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{641BBC22-9F0F-4067-80AD-237FD482BF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD0CCC47-C539-4122-BD4B-D70A5C455F8D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>